--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H2">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I2">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J2">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.896208601715</v>
+        <v>6.9164455</v>
       </c>
       <c r="N2">
-        <v>6.896208601715</v>
+        <v>13.832891</v>
       </c>
       <c r="O2">
-        <v>0.6021009896685757</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P2">
-        <v>0.6021009896685757</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q2">
-        <v>0.2453984152922987</v>
+        <v>0.3594960877534999</v>
       </c>
       <c r="R2">
-        <v>0.2453984152922987</v>
+        <v>1.437984351014</v>
       </c>
       <c r="S2">
-        <v>0.05729360245317822</v>
+        <v>0.05135374301858009</v>
       </c>
       <c r="T2">
-        <v>0.05729360245317822</v>
+        <v>0.03185412354553956</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H3">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I3">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J3">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8372639326572699</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N3">
-        <v>0.8372639326572699</v>
+        <v>2.802176</v>
       </c>
       <c r="O3">
-        <v>0.07310066611694117</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P3">
-        <v>0.07310066611694117</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q3">
-        <v>0.02979365244322741</v>
+        <v>0.04854956731733333</v>
       </c>
       <c r="R3">
-        <v>0.02979365244322741</v>
+        <v>0.291297403904</v>
       </c>
       <c r="S3">
-        <v>0.006955976780360256</v>
+        <v>0.006935268807117408</v>
       </c>
       <c r="T3">
-        <v>0.006955976780360256</v>
+        <v>0.006452798659394185</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H4">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I4">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J4">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.6897185454941</v>
+        <v>0.035773</v>
       </c>
       <c r="N4">
-        <v>2.6897185454941</v>
+        <v>0.107319</v>
       </c>
       <c r="O4">
-        <v>0.2348366025020147</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P4">
-        <v>0.2348366025020147</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q4">
-        <v>0.09571239890893268</v>
+        <v>0.001859373221</v>
       </c>
       <c r="R4">
-        <v>0.09571239890893268</v>
+        <v>0.011156239326</v>
       </c>
       <c r="S4">
-        <v>0.02234614321529603</v>
+        <v>0.0002656100520135184</v>
       </c>
       <c r="T4">
-        <v>0.02234614321529603</v>
+        <v>0.0002471321927414711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H5">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I5">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J5">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.03038351982162</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N5">
-        <v>1.03038351982162</v>
+        <v>0.19391</v>
       </c>
       <c r="O5">
-        <v>0.08996174171246844</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P5">
-        <v>0.08996174171246844</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q5">
-        <v>0.03666572424225171</v>
+        <v>0.003359620023333333</v>
       </c>
       <c r="R5">
-        <v>0.03666572424225171</v>
+        <v>0.02015772014</v>
       </c>
       <c r="S5">
-        <v>0.008560411549077168</v>
+        <v>0.0004799191679566654</v>
       </c>
       <c r="T5">
-        <v>0.008560411549077168</v>
+        <v>0.0004465323334591141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.21574445352571</v>
+        <v>0.051977</v>
       </c>
       <c r="H6">
-        <v>0.21574445352571</v>
+        <v>0.103954</v>
       </c>
       <c r="I6">
-        <v>0.5769192957447823</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J6">
-        <v>0.5769192957447823</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.896208601715</v>
+        <v>2.689952</v>
       </c>
       <c r="N6">
-        <v>6.896208601715</v>
+        <v>8.069856</v>
       </c>
       <c r="O6">
-        <v>0.6021009896685757</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P6">
-        <v>0.6021009896685757</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q6">
-        <v>1.487818756176303</v>
+        <v>0.139815635104</v>
       </c>
       <c r="R6">
-        <v>1.487818756176303</v>
+        <v>0.8388938106239999</v>
       </c>
       <c r="S6">
-        <v>0.3473636789268311</v>
+        <v>0.01997255725362335</v>
       </c>
       <c r="T6">
-        <v>0.3473636789268311</v>
+        <v>0.01858311397225018</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.21574445352571</v>
+        <v>0.051977</v>
       </c>
       <c r="H7">
-        <v>0.21574445352571</v>
+        <v>0.103954</v>
       </c>
       <c r="I7">
-        <v>0.5769192957447823</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J7">
-        <v>0.5769192957447823</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8372639326572699</v>
+        <v>1.099586</v>
       </c>
       <c r="N7">
-        <v>0.8372639326572699</v>
+        <v>2.199172</v>
       </c>
       <c r="O7">
-        <v>0.07310066611694117</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P7">
-        <v>0.07310066611694117</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q7">
-        <v>0.1806350496079296</v>
+        <v>0.05715318152199999</v>
       </c>
       <c r="R7">
-        <v>0.1806350496079296</v>
+        <v>0.228612726088</v>
       </c>
       <c r="S7">
-        <v>0.04217318481466017</v>
+        <v>0.008164288559900951</v>
       </c>
       <c r="T7">
-        <v>0.04217318481466017</v>
+        <v>0.005064212288370619</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H8">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I8">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J8">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.6897185454941</v>
+        <v>6.9164455</v>
       </c>
       <c r="N8">
-        <v>2.6897185454941</v>
+        <v>13.832891</v>
       </c>
       <c r="O8">
-        <v>0.2348366025020147</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P8">
-        <v>0.2348366025020147</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q8">
-        <v>0.5802918577355922</v>
+        <v>2.181188696734667</v>
       </c>
       <c r="R8">
-        <v>0.5802918577355922</v>
+        <v>13.087132180408</v>
       </c>
       <c r="S8">
-        <v>0.1354817673305597</v>
+        <v>0.3115811482319898</v>
       </c>
       <c r="T8">
-        <v>0.1354817673305597</v>
+        <v>0.2899051891889917</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,320 +962,320 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H9">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I9">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J9">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.03038351982162</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N9">
-        <v>1.03038351982162</v>
+        <v>2.802176</v>
       </c>
       <c r="O9">
-        <v>0.08996174171246844</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P9">
-        <v>0.08996174171246844</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q9">
-        <v>0.222299529405813</v>
+        <v>0.2945672319431111</v>
       </c>
       <c r="R9">
-        <v>0.222299529405813</v>
+        <v>2.651105087488</v>
       </c>
       <c r="S9">
-        <v>0.0519006646727313</v>
+        <v>0.0420787052939319</v>
       </c>
       <c r="T9">
-        <v>0.0519006646727313</v>
+        <v>0.05872708484588306</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0616938636322684</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H10">
-        <v>0.0616938636322684</v>
+        <v>0.946088</v>
       </c>
       <c r="I10">
-        <v>0.1649747178981888</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J10">
-        <v>0.1649747178981888</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>6.896208601715</v>
+        <v>0.035773</v>
       </c>
       <c r="N10">
-        <v>6.896208601715</v>
+        <v>0.107319</v>
       </c>
       <c r="O10">
-        <v>0.6021009896685757</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P10">
-        <v>0.6021009896685757</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q10">
-        <v>0.4254537530538816</v>
+        <v>0.01128146867466667</v>
       </c>
       <c r="R10">
-        <v>0.4254537530538816</v>
+        <v>0.101533218072</v>
       </c>
       <c r="S10">
-        <v>0.09933144091679359</v>
+        <v>0.001611549229398681</v>
       </c>
       <c r="T10">
-        <v>0.09933144091679359</v>
+        <v>0.002249156376535708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0616938636322684</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H11">
-        <v>0.0616938636322684</v>
+        <v>0.946088</v>
       </c>
       <c r="I11">
-        <v>0.1649747178981888</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J11">
-        <v>0.1649747178981888</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.8372639326572699</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N11">
-        <v>0.8372639326572699</v>
+        <v>0.19391</v>
       </c>
       <c r="O11">
-        <v>0.07310066611694117</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P11">
-        <v>0.07310066611694117</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q11">
-        <v>0.05165404688557437</v>
+        <v>0.02038399156444445</v>
       </c>
       <c r="R11">
-        <v>0.05165404688557437</v>
+        <v>0.18345592408</v>
       </c>
       <c r="S11">
-        <v>0.01205976177081206</v>
+        <v>0.002911837708818552</v>
       </c>
       <c r="T11">
-        <v>0.01205976177081206</v>
+        <v>0.004063902132651619</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0616938636322684</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H12">
-        <v>0.0616938636322684</v>
+        <v>0.946088</v>
       </c>
       <c r="I12">
-        <v>0.1649747178981888</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J12">
-        <v>0.1649747178981888</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.6897185454941</v>
+        <v>2.689952</v>
       </c>
       <c r="N12">
-        <v>2.6897185454941</v>
+        <v>8.069856</v>
       </c>
       <c r="O12">
-        <v>0.2348366025020147</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P12">
-        <v>0.2348366025020147</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q12">
-        <v>0.1659391291548963</v>
+        <v>0.8483104359253333</v>
       </c>
       <c r="R12">
-        <v>0.1659391291548963</v>
+        <v>7.634793923328</v>
       </c>
       <c r="S12">
-        <v>0.03874210224993898</v>
+        <v>0.1211805012920202</v>
       </c>
       <c r="T12">
-        <v>0.03874210224993898</v>
+        <v>0.1691253932679669</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0616938636322684</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H13">
-        <v>0.0616938636322684</v>
+        <v>0.946088</v>
       </c>
       <c r="I13">
-        <v>0.1649747178981888</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J13">
-        <v>0.1649747178981888</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.03038351982162</v>
+        <v>1.099586</v>
       </c>
       <c r="N13">
-        <v>1.03038351982162</v>
+        <v>2.199172</v>
       </c>
       <c r="O13">
-        <v>0.08996174171246844</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P13">
-        <v>0.08996174171246844</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q13">
-        <v>0.06356834036081174</v>
+        <v>0.3467683731893333</v>
       </c>
       <c r="R13">
-        <v>0.06356834036081174</v>
+        <v>2.080610239136</v>
       </c>
       <c r="S13">
-        <v>0.01484141296064421</v>
+        <v>0.04953559866261084</v>
       </c>
       <c r="T13">
-        <v>0.01484141296064421</v>
+        <v>0.04608952493872273</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1278,60 +1284,60 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0609366459201686</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H14">
-        <v>0.0609366459201686</v>
+        <v>0.042601</v>
       </c>
       <c r="I14">
-        <v>0.162949852359117</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J14">
-        <v>0.162949852359117</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.896208601715</v>
+        <v>6.9164455</v>
       </c>
       <c r="N14">
-        <v>6.896208601715</v>
+        <v>13.832891</v>
       </c>
       <c r="O14">
-        <v>0.6021009896685757</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P14">
-        <v>0.6021009896685757</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q14">
-        <v>0.4202318217543279</v>
+        <v>0.09821583158183333</v>
       </c>
       <c r="R14">
-        <v>0.4202318217543279</v>
+        <v>0.589294989491</v>
       </c>
       <c r="S14">
-        <v>0.09811226737177266</v>
+        <v>0.01403005692475858</v>
       </c>
       <c r="T14">
-        <v>0.09811226737177266</v>
+        <v>0.01305401925047166</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1340,60 +1346,60 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0609366459201686</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H15">
-        <v>0.0609366459201686</v>
+        <v>0.042601</v>
       </c>
       <c r="I15">
-        <v>0.162949852359117</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J15">
-        <v>0.162949852359117</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8372639326572699</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N15">
-        <v>0.8372639326572699</v>
+        <v>2.802176</v>
       </c>
       <c r="O15">
-        <v>0.07310066611694117</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P15">
-        <v>0.07310066611694117</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q15">
-        <v>0.05102005580606395</v>
+        <v>0.01326394441955556</v>
       </c>
       <c r="R15">
-        <v>0.05102005580606395</v>
+        <v>0.119375499776</v>
       </c>
       <c r="S15">
-        <v>0.01191174275110867</v>
+        <v>0.001894744383426059</v>
       </c>
       <c r="T15">
-        <v>0.01191174275110867</v>
+        <v>0.002644397288116395</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1402,60 +1408,60 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0609366459201686</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H16">
-        <v>0.0609366459201686</v>
+        <v>0.042601</v>
       </c>
       <c r="I16">
-        <v>0.162949852359117</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J16">
-        <v>0.162949852359117</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.6897185454941</v>
+        <v>0.035773</v>
       </c>
       <c r="N16">
-        <v>2.6897185454941</v>
+        <v>0.107319</v>
       </c>
       <c r="O16">
-        <v>0.2348366025020147</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P16">
-        <v>0.2348366025020147</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q16">
-        <v>0.1639024266316849</v>
+        <v>0.0005079885243333334</v>
       </c>
       <c r="R16">
-        <v>0.1639024266316849</v>
+        <v>0.004571896719</v>
       </c>
       <c r="S16">
-        <v>0.03826658970621994</v>
+        <v>7.256577477107119E-05</v>
       </c>
       <c r="T16">
-        <v>0.03826658970621994</v>
+        <v>0.0001012763197469978</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1464,49 +1470,1289 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.0609366459201686</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H17">
-        <v>0.0609366459201686</v>
+        <v>0.042601</v>
       </c>
       <c r="I17">
-        <v>0.162949852359117</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J17">
-        <v>0.162949852359117</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.03038351982162</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N17">
-        <v>1.03038351982162</v>
+        <v>0.19391</v>
       </c>
       <c r="O17">
-        <v>0.08996174171246844</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P17">
-        <v>0.08996174171246844</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q17">
-        <v>0.06278811570934709</v>
+        <v>0.0009178622122222224</v>
       </c>
       <c r="R17">
-        <v>0.06278811570934709</v>
+        <v>0.008260759910000002</v>
       </c>
       <c r="S17">
-        <v>0.01465925253001575</v>
+        <v>0.0001311159196960316</v>
       </c>
       <c r="T17">
-        <v>0.01465925253001575</v>
+        <v>0.0001829917457499637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01420033333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.042601</v>
+      </c>
+      <c r="I18">
+        <v>0.02381558671199722</v>
+      </c>
+      <c r="J18">
+        <v>0.0256735069488597</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.689952</v>
+      </c>
+      <c r="N18">
+        <v>8.069856</v>
+      </c>
+      <c r="O18">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P18">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q18">
+        <v>0.03819821505066667</v>
+      </c>
+      <c r="R18">
+        <v>0.343783935456</v>
+      </c>
+      <c r="S18">
+        <v>0.005456585999971836</v>
+      </c>
+      <c r="T18">
+        <v>0.007615476444695057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01420033333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.042601</v>
+      </c>
+      <c r="I19">
+        <v>0.02381558671199722</v>
+      </c>
+      <c r="J19">
+        <v>0.0256735069488597</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.099586</v>
+      </c>
+      <c r="N19">
+        <v>2.199172</v>
+      </c>
+      <c r="O19">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P19">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q19">
+        <v>0.01561448772866667</v>
+      </c>
+      <c r="R19">
+        <v>0.09368692637199999</v>
+      </c>
+      <c r="S19">
+        <v>0.002230517709373636</v>
+      </c>
+      <c r="T19">
+        <v>0.002075345900079619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.073389</v>
+      </c>
+      <c r="H20">
+        <v>0.220167</v>
+      </c>
+      <c r="I20">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J20">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.9164455</v>
+      </c>
+      <c r="N20">
+        <v>13.832891</v>
+      </c>
+      <c r="O20">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P20">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q20">
+        <v>0.5075910187995</v>
+      </c>
+      <c r="R20">
+        <v>3.045546112797</v>
+      </c>
+      <c r="S20">
+        <v>0.07250899140755669</v>
+      </c>
+      <c r="T20">
+        <v>0.06746471341796188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.073389</v>
+      </c>
+      <c r="H21">
+        <v>0.220167</v>
+      </c>
+      <c r="I21">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J21">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N21">
+        <v>2.802176</v>
+      </c>
+      <c r="O21">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P21">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q21">
+        <v>0.068549631488</v>
+      </c>
+      <c r="R21">
+        <v>0.6169466833920001</v>
+      </c>
+      <c r="S21">
+        <v>0.009792262779412808</v>
+      </c>
+      <c r="T21">
+        <v>0.01366655753932355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.073389</v>
+      </c>
+      <c r="H22">
+        <v>0.220167</v>
+      </c>
+      <c r="I22">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J22">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.035773</v>
+      </c>
+      <c r="N22">
+        <v>0.107319</v>
+      </c>
+      <c r="O22">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P22">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q22">
+        <v>0.002625344697</v>
+      </c>
+      <c r="R22">
+        <v>0.023628102273</v>
+      </c>
+      <c r="S22">
+        <v>0.000375028495434906</v>
+      </c>
+      <c r="T22">
+        <v>0.0005234079831397682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.073389</v>
+      </c>
+      <c r="H23">
+        <v>0.220167</v>
+      </c>
+      <c r="I23">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J23">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N23">
+        <v>0.19391</v>
+      </c>
+      <c r="O23">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P23">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q23">
+        <v>0.00474362033</v>
+      </c>
+      <c r="R23">
+        <v>0.04269258297</v>
+      </c>
+      <c r="S23">
+        <v>0.0006776225603088235</v>
+      </c>
+      <c r="T23">
+        <v>0.0009457229568914403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.073389</v>
+      </c>
+      <c r="H24">
+        <v>0.220167</v>
+      </c>
+      <c r="I24">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J24">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.689952</v>
+      </c>
+      <c r="N24">
+        <v>8.069856</v>
+      </c>
+      <c r="O24">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P24">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q24">
+        <v>0.197412887328</v>
+      </c>
+      <c r="R24">
+        <v>1.776715985952</v>
+      </c>
+      <c r="S24">
+        <v>0.02820028097593482</v>
+      </c>
+      <c r="T24">
+        <v>0.03935768180087736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.073389</v>
+      </c>
+      <c r="H25">
+        <v>0.220167</v>
+      </c>
+      <c r="I25">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J25">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.099586</v>
+      </c>
+      <c r="N25">
+        <v>2.199172</v>
+      </c>
+      <c r="O25">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P25">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q25">
+        <v>0.08069751695399999</v>
+      </c>
+      <c r="R25">
+        <v>0.484185101724</v>
+      </c>
+      <c r="S25">
+        <v>0.01152757898921775</v>
+      </c>
+      <c r="T25">
+        <v>0.01072563275000187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.191582</v>
+      </c>
+      <c r="I26">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J26">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.9164455</v>
+      </c>
+      <c r="N26">
+        <v>13.832891</v>
+      </c>
+      <c r="O26">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P26">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q26">
+        <v>0.4416888205936667</v>
+      </c>
+      <c r="R26">
+        <v>2.650132923562</v>
+      </c>
+      <c r="S26">
+        <v>0.06309491246118867</v>
+      </c>
+      <c r="T26">
+        <v>0.05870554954212018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H27">
+        <v>0.191582</v>
+      </c>
+      <c r="I27">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J27">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N27">
+        <v>2.802176</v>
+      </c>
+      <c r="O27">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P27">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q27">
+        <v>0.05964960915911111</v>
+      </c>
+      <c r="R27">
+        <v>0.5368464824320001</v>
+      </c>
+      <c r="S27">
+        <v>0.008520901351271827</v>
+      </c>
+      <c r="T27">
+        <v>0.01189218378094212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H28">
+        <v>0.191582</v>
+      </c>
+      <c r="I28">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J28">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.035773</v>
+      </c>
+      <c r="N28">
+        <v>0.107319</v>
+      </c>
+      <c r="O28">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P28">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q28">
+        <v>0.002284487628666666</v>
+      </c>
+      <c r="R28">
+        <v>0.020560388658</v>
+      </c>
+      <c r="S28">
+        <v>0.0003263373221800277</v>
+      </c>
+      <c r="T28">
+        <v>0.0004554522168439552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H29">
+        <v>0.191582</v>
+      </c>
+      <c r="I29">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J29">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N29">
+        <v>0.19391</v>
+      </c>
+      <c r="O29">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P29">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q29">
+        <v>0.004127740624444444</v>
+      </c>
+      <c r="R29">
+        <v>0.03714966562000001</v>
+      </c>
+      <c r="S29">
+        <v>0.000589644612267438</v>
+      </c>
+      <c r="T29">
+        <v>0.0008229366595683092</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H30">
+        <v>0.191582</v>
+      </c>
+      <c r="I30">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J30">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.689952</v>
+      </c>
+      <c r="N30">
+        <v>8.069856</v>
+      </c>
+      <c r="O30">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P30">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q30">
+        <v>0.1717821280213333</v>
+      </c>
+      <c r="R30">
+        <v>1.546039152192</v>
+      </c>
+      <c r="S30">
+        <v>0.02453894648122354</v>
+      </c>
+      <c r="T30">
+        <v>0.03424774555122106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H31">
+        <v>0.191582</v>
+      </c>
+      <c r="I31">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J31">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.099586</v>
+      </c>
+      <c r="N31">
+        <v>2.199172</v>
+      </c>
+      <c r="O31">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P31">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q31">
+        <v>0.07022029501733333</v>
+      </c>
+      <c r="R31">
+        <v>0.421321770104</v>
+      </c>
+      <c r="S31">
+        <v>0.0100309157953386</v>
+      </c>
+      <c r="T31">
+        <v>0.009333088853056353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.0774725</v>
+      </c>
+      <c r="H32">
+        <v>0.154945</v>
+      </c>
+      <c r="I32">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J32">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.9164455</v>
+      </c>
+      <c r="N32">
+        <v>13.832891</v>
+      </c>
+      <c r="O32">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P32">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q32">
+        <v>0.53583432399875</v>
+      </c>
+      <c r="R32">
+        <v>2.143337295995</v>
+      </c>
+      <c r="S32">
+        <v>0.07654352609821549</v>
+      </c>
+      <c r="T32">
+        <v>0.04747905008718884</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.0774725</v>
+      </c>
+      <c r="H33">
+        <v>0.154945</v>
+      </c>
+      <c r="I33">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J33">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N33">
+        <v>2.802176</v>
+      </c>
+      <c r="O33">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P33">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q33">
+        <v>0.07236386005333334</v>
+      </c>
+      <c r="R33">
+        <v>0.43418316032</v>
+      </c>
+      <c r="S33">
+        <v>0.01033712243221816</v>
+      </c>
+      <c r="T33">
+        <v>0.009617993422858498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.0774725</v>
+      </c>
+      <c r="H34">
+        <v>0.154945</v>
+      </c>
+      <c r="I34">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J34">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.035773</v>
+      </c>
+      <c r="N34">
+        <v>0.107319</v>
+      </c>
+      <c r="O34">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P34">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q34">
+        <v>0.0027714237425</v>
+      </c>
+      <c r="R34">
+        <v>0.016628542455</v>
+      </c>
+      <c r="S34">
+        <v>0.0003958957761051486</v>
+      </c>
+      <c r="T34">
+        <v>0.0003683542490363742</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.0774725</v>
+      </c>
+      <c r="H35">
+        <v>0.154945</v>
+      </c>
+      <c r="I35">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J35">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N35">
+        <v>0.19391</v>
+      </c>
+      <c r="O35">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P35">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q35">
+        <v>0.005007564158333334</v>
+      </c>
+      <c r="R35">
+        <v>0.03004538495</v>
+      </c>
+      <c r="S35">
+        <v>0.0007153267356623654</v>
+      </c>
+      <c r="T35">
+        <v>0.000665563156856133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.0774725</v>
+      </c>
+      <c r="H36">
+        <v>0.154945</v>
+      </c>
+      <c r="I36">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J36">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.689952</v>
+      </c>
+      <c r="N36">
+        <v>8.069856</v>
+      </c>
+      <c r="O36">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P36">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q36">
+        <v>0.20839730632</v>
+      </c>
+      <c r="R36">
+        <v>1.25038383792</v>
+      </c>
+      <c r="S36">
+        <v>0.02976939688383968</v>
+      </c>
+      <c r="T36">
+        <v>0.02769841078198342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.0774725</v>
+      </c>
+      <c r="H37">
+        <v>0.154945</v>
+      </c>
+      <c r="I37">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J37">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.099586</v>
+      </c>
+      <c r="N37">
+        <v>2.199172</v>
+      </c>
+      <c r="O37">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P37">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q37">
+        <v>0.08518767638499999</v>
+      </c>
+      <c r="R37">
+        <v>0.34075070554</v>
+      </c>
+      <c r="S37">
+        <v>0.01216899485266419</v>
+      </c>
+      <c r="T37">
+        <v>0.007548284558762392</v>
       </c>
     </row>
   </sheetData>
